--- a/Codes/software/mnist_cnn_hardware_friendly/layers_size.xlsx
+++ b/Codes/software/mnist_cnn_hardware_friendly/layers_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\University\term7\Thesis\Codes\software\mnist_cnn_hardware_friendly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF56113-953F-4EB9-AF1A-BE7DCBD0C609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9A8CA3-543D-4B18-9DDC-521F5176422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>layer_index</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>(None, 13, 13, 32)</t>
-  </si>
-  <si>
-    <t>(None, 13, 13,32)</t>
   </si>
   <si>
     <t>(None, 11, 11, 64)</t>
@@ -931,7 +928,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
@@ -950,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -992,10 +989,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,10 +1003,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,10 +1017,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,10 +1045,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/software/mnist_cnn_hardware_friendly/layers_size.xlsx
+++ b/Codes/software/mnist_cnn_hardware_friendly/layers_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\University\term7\Thesis\Codes\software\mnist_cnn_hardware_friendly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9A8CA3-543D-4B18-9DDC-521F5176422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DCED9-0620-4FD1-8C56-4026E2CC0E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
